--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>naam</t>
   </si>
@@ -32,13 +32,19 @@
     <t>punten_bdam</t>
   </si>
   <si>
-    <t>uitkomst</t>
+    <t>uitkomst_se</t>
+  </si>
+  <si>
+    <t>uitkomst_fict</t>
+  </si>
+  <si>
+    <t>uitkomst_iat</t>
+  </si>
+  <si>
+    <t>uitkomst_bdam</t>
   </si>
   <si>
     <t>Joost</t>
-  </si>
-  <si>
-    <t>se</t>
   </si>
 </sst>
 </file>
@@ -400,13 +406,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -417,16 +432,25 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -437,28 +461,17 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,36 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>punten_se</t>
-  </si>
-  <si>
-    <t>punten_fict</t>
-  </si>
-  <si>
-    <t>punten_iat</t>
-  </si>
-  <si>
-    <t>punten_bdam</t>
-  </si>
-  <si>
-    <t>uitkomst_se</t>
-  </si>
-  <si>
-    <t>uitkomst_fict</t>
-  </si>
-  <si>
-    <t>uitkomst_iat</t>
-  </si>
-  <si>
-    <t>uitkomst_bdam</t>
-  </si>
-  <si>
-    <t>Joost</t>
+    <t>punten_an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punten_ad </t>
+  </si>
+  <si>
+    <t>punten_re</t>
+  </si>
+  <si>
+    <t>punten_on</t>
+  </si>
+  <si>
+    <t>punten_mc</t>
+  </si>
+  <si>
+    <t>bool_ia</t>
+  </si>
+  <si>
+    <t>uitkomst</t>
+  </si>
+  <si>
+    <t>joost</t>
   </si>
 </sst>
 </file>
@@ -412,67 +409,18 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -23,7 +23,7 @@
     <t>punten_an</t>
   </si>
   <si>
-    <t xml:space="preserve">punten_ad </t>
+    <t>punten_ad</t>
   </si>
   <si>
     <t>punten_re</t>
@@ -41,7 +41,7 @@
     <t>uitkomst</t>
   </si>
   <si>
-    <t>joost</t>
+    <t>Joost</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,9 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
       <c r="C2" t="s"/>
       <c r="D2" t="s"/>
       <c r="E2" t="s"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -41,7 +41,7 @@
     <t>uitkomst</t>
   </si>
   <si>
-    <t>Joost</t>
+    <t>Jesse</t>
   </si>
 </sst>
 </file>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D08B1E-C4CE-4D24-AB36-CEB9B0F0A2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>naam</t>
   </si>
@@ -39,28 +44,24 @@
   </si>
   <si>
     <t>uitkomst</t>
-  </si>
-  <si>
-    <t>Jesse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,15 +77,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,19 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,20 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D08B1E-C4CE-4D24-AB36-CEB9B0F0A2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="db" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>naam</t>
   </si>
@@ -44,24 +39,31 @@
   </si>
   <si>
     <t>uitkomst</t>
+  </si>
+  <si>
+    <t>Thijs</t>
+  </si>
+  <si>
+    <t>Jesse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,24 +79,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -382,16 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +413,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -41,10 +41,10 @@
     <t>uitkomst</t>
   </si>
   <si>
-    <t>Thijs</t>
-  </si>
-  <si>
-    <t>Jesse</t>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -440,22 +440,44 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>naam</t>
   </si>
@@ -41,10 +41,13 @@
     <t>uitkomst</t>
   </si>
   <si>
-    <t>Hallo</t>
-  </si>
-  <si>
-    <t>dsa</t>
+    <t>Joost</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Ryan</t>
   </si>
 </sst>
 </file>
@@ -421,13 +424,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -437,22 +440,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s"/>
@@ -465,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -478,6 +481,50 @@
       </c>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>naam</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Ryan</t>
+  </si>
+  <si>
+    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -526,6 +529,28 @@
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,72 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\SortingHat\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC39546-74A7-4B9C-A443-D26A4EA44938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>punten_an</t>
-  </si>
-  <si>
-    <t>punten_ad</t>
-  </si>
-  <si>
-    <t>punten_re</t>
-  </si>
-  <si>
-    <t>punten_on</t>
-  </si>
-  <si>
-    <t>punten_mc</t>
-  </si>
-  <si>
-    <t>bool_ia</t>
-  </si>
-  <si>
     <t>uitkomst</t>
   </si>
   <si>
-    <t>Joost</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Ryan</t>
+    <t>punten_se</t>
+  </si>
+  <si>
+    <t>punten_fict</t>
+  </si>
+  <si>
+    <t>punten_bdam</t>
+  </si>
+  <si>
+    <t>punten_iat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,154 +376,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54</v>
-      </c>
-      <c r="E2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>66</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,42 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>naam</t>
   </si>
   <si>
-    <t>punten_an</t>
-  </si>
-  <si>
-    <t>punten_ad</t>
-  </si>
-  <si>
-    <t>punten_re</t>
-  </si>
-  <si>
-    <t>punten_on</t>
-  </si>
-  <si>
-    <t>punten_mc</t>
-  </si>
-  <si>
-    <t>bool_ia</t>
+    <t>punten_se</t>
+  </si>
+  <si>
+    <t>punten_fict</t>
+  </si>
+  <si>
+    <t>punten_bdam</t>
+  </si>
+  <si>
+    <t>punten_iat</t>
   </si>
   <si>
     <t>uitkomst</t>
   </si>
   <si>
     <t>Joost</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>dsa</t>
   </si>
 </sst>
 </file>
@@ -412,144 +397,24 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>66</v>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>97</v>
-      </c>
-      <c r="E3" t="n">
-        <v>95</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
+      <c r="F2" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\SortingHat\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332383E-1056-4FCA-B220-CACFFA31ABDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>naam</t>
   </si>
@@ -33,28 +38,24 @@
   </si>
   <si>
     <t>uitkomst</t>
-  </si>
-  <si>
-    <t>Joost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -366,19 +376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,24 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s"/>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>naam</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Joost</t>
+  </si>
+  <si>
+    <t>Hallo</t>
   </si>
 </sst>
 </file>
@@ -416,6 +419,24 @@
       </c>
       <c r="F2" t="s"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\SortingHat\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332383E-1056-4FCA-B220-CACFFA31ABDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="db" sheetId="1" r:id="rId1"/>
+    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>naam</t>
   </si>
@@ -38,24 +33,46 @@
   </si>
   <si>
     <t>uitkomst</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>thijs</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>karel</t>
+  </si>
+  <si>
+    <t>Bram de Jong</t>
+  </si>
+  <si>
+    <t>koen</t>
+  </si>
+  <si>
+    <t>harry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,24 +88,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -376,16 +384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +416,132 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81</v>
+      </c>
+      <c r="C8" t="n">
+        <v>105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\SortingHat\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE09D0B9-DEBB-4B73-8EE8-E59289BAC411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>naam</t>
   </si>
@@ -33,31 +38,24 @@
   </si>
   <si>
     <t>uitkomst</t>
-  </si>
-  <si>
-    <t>Joost</t>
-  </si>
-  <si>
-    <t>Hallo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,19 +376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,42 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s"/>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>naam</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Hallo</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>yeet</t>
+  </si>
+  <si>
+    <t>wwwww</t>
   </si>
 </sst>
 </file>
@@ -437,6 +446,60 @@
       </c>
       <c r="F3" t="s"/>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>naam</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>wwwww</t>
+  </si>
+  <si>
+    <t>fict</t>
   </si>
 </sst>
 </file>
@@ -500,6 +503,26 @@
       </c>
       <c r="F6" t="s"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Github\SortingHat\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE251909-9437-4F12-A5FD-8BEC2A89C0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>naam</t>
   </si>
@@ -33,40 +38,24 @@
   </si>
   <si>
     <t>uitkomst</t>
-  </si>
-  <si>
-    <t>Joost</t>
-  </si>
-  <si>
-    <t>Hallo</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>yeet</t>
-  </si>
-  <si>
-    <t>wwwww</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,19 +376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,96 +405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s"/>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="db" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="db" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>naam</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>fict</t>
+  </si>
+  <si>
+    <t>im joost</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>Im testing le vragen UwU</t>
+  </si>
+  <si>
+    <t>Thijs</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tets</t>
+  </si>
+  <si>
+    <t>It workd</t>
+  </si>
+  <si>
+    <t>bdam</t>
   </si>
 </sst>
 </file>
@@ -523,6 +547,156 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>135</v>
+      </c>
+      <c r="C8" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>naam</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>bdam</t>
+  </si>
+  <si>
+    <t>Imma beard!</t>
   </si>
 </sst>
 </file>
@@ -697,6 +700,84 @@
       </c>
       <c r="F15" t="s"/>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>62</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>naam</t>
   </si>
@@ -35,49 +35,37 @@
     <t>uitkomst</t>
   </si>
   <si>
-    <t>Joost</t>
-  </si>
-  <si>
-    <t>Hallo</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>yeet</t>
-  </si>
-  <si>
-    <t>wwwww</t>
-  </si>
-  <si>
-    <t>fict</t>
-  </si>
-  <si>
-    <t>im joost</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>Im testing le vragen UwU</t>
-  </si>
-  <si>
-    <t>Thijs</t>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>Forensisch ICT</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>tets</t>
-  </si>
-  <si>
-    <t>It workd</t>
-  </si>
-  <si>
-    <t>bdam</t>
-  </si>
-  <si>
-    <t>Imma beard!</t>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testwerk pls</t>
+  </si>
+  <si>
+    <t>werk nu</t>
+  </si>
+  <si>
+    <t>testse</t>
+  </si>
+  <si>
+    <t>Yayyeet</t>
+  </si>
+  <si>
+    <t>youre a wizzard harry</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>tewt</t>
   </si>
 </sst>
 </file>
@@ -445,129 +433,139 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -575,58 +573,62 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -641,142 +643,6 @@
         <v>0</v>
       </c>
       <c r="F12" t="s"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="n">
-        <v>55</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" t="n">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="n">
-        <v>95</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>55</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="n">
-        <v>58</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="n">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s"/>
     </row>
   </sheetData>
 </worksheet>
